--- a/bom/3bpv2 bom.xlsx
+++ b/bom/3bpv2 bom.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\teehanzd\OneDrive - ISED-ISDE\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\mdf\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AD167A9-B1CE-4BCB-B9F7-95A82895961C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="3225" yWindow="5025" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BOM_TPB_OP_amp_jumper_NUMBER_20" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="82">
   <si>
     <t>Name</t>
   </si>
@@ -243,9 +244,6 @@
     <t>CR0603-FX-7500ELF</t>
   </si>
   <si>
-    <t>TAJA226K010TNJ</t>
-  </si>
-  <si>
     <t>TAJA106K016RNJV</t>
   </si>
   <si>
@@ -259,13 +257,22 @@
   </si>
   <si>
     <t>220uf/6.3v</t>
+  </si>
+  <si>
+    <t>C3225X7R1A226K230AC</t>
+  </si>
+  <si>
+    <t>1210'</t>
+  </si>
+  <si>
+    <t>tdk</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="19" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -405,6 +412,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF444444"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="33">
@@ -748,13 +761,14 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1109,11 +1123,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1414,21 +1428,21 @@
         <v>19</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="E15" s="2">
         <v>1</v>
       </c>
-      <c r="F15" s="2" t="s">
-        <v>74</v>
+      <c r="F15" s="4" t="s">
+        <v>79</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C16" t="s">
         <v>27</v>
@@ -1500,10 +1514,10 @@
         <v>2</v>
       </c>
       <c r="F19" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G19" s="2" t="s">
         <v>76</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
@@ -1520,7 +1534,7 @@
         <v>1</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>69</v>
@@ -1528,7 +1542,7 @@
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
